--- a/exp_l_1/data/end_BFNSNF.xlsx
+++ b/exp_l_1/data/end_BFNSNF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuwen/Desktop/chiLLM/HeartAgent_Datavis/exp_l_1/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\devworkshop\HeartAgent_Datavis\exp_l_1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBD5964-325F-BB41-9919-F837F9654146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B42D38-3C4D-4FEB-825F-3E151AF91757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4240" yWindow="4120" windowWidth="29040" windowHeight="15720" xr2:uid="{463535A8-D807-448E-A319-632E5D61D7F1}"/>
+    <workbookView xWindow="720" yWindow="825" windowWidth="13890" windowHeight="14625" xr2:uid="{463535A8-D807-448E-A319-632E5D61D7F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -516,12 +516,12 @@
   <dimension ref="A1:Y31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="A30" sqref="A1:A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25" ht="42">
+    <row r="1" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -598,7 +598,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>13050920803</v>
       </c>
@@ -675,7 +675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>13370792083</v>
       </c>
@@ -752,7 +752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>13523426691</v>
       </c>
@@ -829,7 +829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>13662064265</v>
       </c>
@@ -906,7 +906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>13764851394</v>
       </c>
@@ -983,7 +983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>13896520229</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>13916874074</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>15073142501</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>15111816459</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>15178181483</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>15956956373</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>17857310325</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>17859910206</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>18038829820</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>18049067425</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>18120040923</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>18159658021</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>18208660066</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>18268155717</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>18368437211</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>18372772013</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>18586127686</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>18743527817</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>18924915953</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>18931628795</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>18963809846</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>19119732512</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>19527398569</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>19707045120</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
